--- a/testCase/sqsrmyyadmin/departmentManage.xlsx
+++ b/testCase/sqsrmyyadmin/departmentManage.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="20355" windowHeight="7725" tabRatio="644" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="20355" windowHeight="7725" tabRatio="644" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="insertDepartment" sheetId="2" r:id="rId1"/>
@@ -16,12 +16,12 @@
     <sheet name="searchDepartment" sheetId="7" r:id="rId7"/>
     <sheet name="updateDepartment" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="34">
   <si>
     <t>caseName</t>
   </si>
@@ -117,6 +117,13 @@
   </si>
   <si>
     <t>注意事项（改）</t>
+  </si>
+  <si>
+    <t>databaseName</t>
+  </si>
+  <si>
+    <t>ehospital2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1183,16 +1190,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18.375" customWidth="1"/>
     <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="99" customWidth="1"/>
-    <col min="5" max="5" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="98" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
     <col min="7" max="7" width="16.375" customWidth="1"/>
   </cols>
@@ -1207,7 +1214,10 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1219,10 +1229,12 @@
         <v>5</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1"/>
       <c r="H2" s="1"/>
     </row>
   </sheetData>
@@ -1302,7 +1314,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="27">
+    <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
         <v>22</v>
       </c>
@@ -1351,7 +1363,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="27">
+    <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
         <v>23</v>
       </c>
@@ -1515,8 +1527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1564,7 +1576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="40.5">
+    <row r="2" spans="1:10">
       <c r="A2" s="13" t="s">
         <v>26</v>
       </c>
